--- a/StructureDefinition-BirthRegistration.xlsx
+++ b/StructureDefinition-BirthRegistration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="199">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T14:32:32+00:00</t>
+    <t>2024-06-24T11:41:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -278,6 +278,12 @@
     <t>Citizenship</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/ValueSet/citizenship-vs</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#VYEGPSgn908
 </t>
   </si>
@@ -346,6 +352,9 @@
     <t>Gender</t>
   </si>
   <si>
+    <t>https://dhis2.org/ValueSet/gender-vs</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#Rq4qM2wKYFL
 </t>
   </si>
@@ -390,6 +399,9 @@
     <t>Caretaker</t>
   </si>
   <si>
+    <t>https://dhis2.org/ValueSet/caretaker-vs</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#E5D1aKa2eFb
 </t>
   </si>
@@ -444,6 +456,9 @@
     <t>Mothers Education Level</t>
   </si>
   <si>
+    <t>https://dhis2.org/ValueSet/education-level-vs</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#YDWk8qQbFOh
 </t>
   </si>
@@ -524,6 +539,9 @@
     <t>Social Category</t>
   </si>
   <si>
+    <t>https://dhis2.org/ValueSet/social-category-vs</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#FIeADYwBKjB
 </t>
   </si>
@@ -608,6 +626,9 @@
     <t>District of residence_vacc</t>
   </si>
   <si>
+    <t>https://dhis2.org/ValueSet/district-vs</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#getkVaLr2bw
 </t>
   </si>
@@ -616,6 +637,9 @@
   </si>
   <si>
     <t>Province of residence</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/ValueSet/province-vs</t>
   </si>
   <si>
     <t xml:space="preserve">https://dhis2.org/CodeSystem/DHIS2Attributes#FBm5ftjnCj2
@@ -960,7 +984,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.4375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="59.2421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -1443,16 +1467,14 @@
         <v>70</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AB5" t="s" s="2">
         <v>70</v>
@@ -1484,10 +1506,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1510,13 +1532,13 @@
         <v>70</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1552,7 +1574,7 @@
         <v>70</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AB6" t="s" s="2">
         <v>70</v>
@@ -1567,7 +1589,7 @@
         <v>70</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>71</v>
@@ -1584,10 +1606,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1613,10 +1635,10 @@
         <v>77</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1652,22 +1674,22 @@
         <v>70</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF7" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>71</v>
@@ -1684,10 +1706,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1713,10 +1735,10 @@
         <v>77</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1752,22 +1774,22 @@
         <v>70</v>
       </c>
       <c r="AA8" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>71</v>
@@ -1784,10 +1806,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1810,13 +1832,13 @@
         <v>70</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1852,7 +1874,7 @@
         <v>70</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB9" t="s" s="2">
         <v>70</v>
@@ -1867,7 +1889,7 @@
         <v>70</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>71</v>
@@ -1884,10 +1906,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1913,10 +1935,10 @@
         <v>77</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1952,22 +1974,22 @@
         <v>70</v>
       </c>
       <c r="AA10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>71</v>
@@ -1984,10 +2006,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2013,10 +2035,10 @@
         <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2043,31 +2065,29 @@
         <v>70</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" t="s" s="2">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="AA11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>71</v>
@@ -2084,10 +2104,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2110,13 +2130,13 @@
         <v>70</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2152,22 +2172,22 @@
         <v>70</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>71</v>
@@ -2184,10 +2204,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2210,13 +2230,13 @@
         <v>70</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2252,7 +2272,7 @@
         <v>70</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AB13" t="s" s="2">
         <v>70</v>
@@ -2267,7 +2287,7 @@
         <v>70</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>71</v>
@@ -2284,10 +2304,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2310,13 +2330,13 @@
         <v>70</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2352,7 +2372,7 @@
         <v>70</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AB14" t="s" s="2">
         <v>70</v>
@@ -2367,7 +2387,7 @@
         <v>70</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>71</v>
@@ -2384,10 +2404,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2413,10 +2433,10 @@
         <v>84</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2443,16 +2463,14 @@
         <v>70</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AB15" t="s" s="2">
         <v>70</v>
@@ -2467,7 +2485,7 @@
         <v>70</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>71</v>
@@ -2484,10 +2502,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2513,10 +2531,10 @@
         <v>77</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2552,7 +2570,7 @@
         <v>70</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>70</v>
@@ -2567,7 +2585,7 @@
         <v>70</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>71</v>
@@ -2584,10 +2602,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2610,13 +2628,13 @@
         <v>70</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2652,7 +2670,7 @@
         <v>70</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AB17" t="s" s="2">
         <v>70</v>
@@ -2667,7 +2685,7 @@
         <v>70</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>71</v>
@@ -2684,10 +2702,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2713,10 +2731,10 @@
         <v>77</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2752,7 +2770,7 @@
         <v>70</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AB18" t="s" s="2">
         <v>70</v>
@@ -2767,7 +2785,7 @@
         <v>70</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>71</v>
@@ -2784,10 +2802,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2810,13 +2828,13 @@
         <v>70</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2852,7 +2870,7 @@
         <v>70</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AB19" t="s" s="2">
         <v>70</v>
@@ -2867,7 +2885,7 @@
         <v>70</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>71</v>
@@ -2884,10 +2902,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2913,10 +2931,10 @@
         <v>84</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2943,16 +2961,14 @@
         <v>70</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AB20" t="s" s="2">
         <v>70</v>
@@ -2967,7 +2983,7 @@
         <v>70</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>71</v>
@@ -2984,10 +3000,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3013,10 +3029,10 @@
         <v>77</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3052,7 +3068,7 @@
         <v>70</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AB21" t="s" s="2">
         <v>70</v>
@@ -3067,7 +3083,7 @@
         <v>70</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>71</v>
@@ -3084,10 +3100,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3110,13 +3126,13 @@
         <v>70</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3152,7 +3168,7 @@
         <v>70</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AB22" t="s" s="2">
         <v>70</v>
@@ -3167,7 +3183,7 @@
         <v>70</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>71</v>
@@ -3184,10 +3200,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3213,10 +3229,10 @@
         <v>77</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3252,7 +3268,7 @@
         <v>70</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="AB23" t="s" s="2">
         <v>70</v>
@@ -3267,7 +3283,7 @@
         <v>70</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>71</v>
@@ -3284,10 +3300,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3313,10 +3329,10 @@
         <v>84</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3343,16 +3359,14 @@
         <v>70</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AB24" t="s" s="2">
         <v>70</v>
@@ -3367,7 +3381,7 @@
         <v>70</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>71</v>
@@ -3384,10 +3398,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3413,10 +3427,10 @@
         <v>77</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3452,7 +3466,7 @@
         <v>70</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AB25" t="s" s="2">
         <v>70</v>
@@ -3467,7 +3481,7 @@
         <v>70</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>71</v>
@@ -3484,10 +3498,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3510,13 +3524,13 @@
         <v>70</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3552,7 +3566,7 @@
         <v>70</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AB26" t="s" s="2">
         <v>70</v>
@@ -3567,7 +3581,7 @@
         <v>70</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>71</v>
@@ -3584,10 +3598,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3613,10 +3627,10 @@
         <v>77</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3652,7 +3666,7 @@
         <v>70</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AB27" t="s" s="2">
         <v>70</v>
@@ -3667,7 +3681,7 @@
         <v>70</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>71</v>
@@ -3684,10 +3698,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3713,10 +3727,10 @@
         <v>84</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3743,16 +3757,14 @@
         <v>70</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AB28" t="s" s="2">
         <v>70</v>
@@ -3767,7 +3779,7 @@
         <v>70</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>71</v>
@@ -3784,10 +3796,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3810,13 +3822,13 @@
         <v>70</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3852,7 +3864,7 @@
         <v>70</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AB29" t="s" s="2">
         <v>70</v>
@@ -3867,7 +3879,7 @@
         <v>70</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>71</v>
@@ -3884,10 +3896,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3910,13 +3922,13 @@
         <v>70</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -3952,7 +3964,7 @@
         <v>70</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AB30" t="s" s="2">
         <v>70</v>
@@ -3967,7 +3979,7 @@
         <v>70</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>71</v>
@@ -3984,10 +3996,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4013,10 +4025,10 @@
         <v>77</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4052,7 +4064,7 @@
         <v>70</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AB31" t="s" s="2">
         <v>70</v>
@@ -4067,7 +4079,7 @@
         <v>70</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>71</v>
@@ -4084,10 +4096,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4113,10 +4125,10 @@
         <v>77</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4152,7 +4164,7 @@
         <v>70</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AB32" t="s" s="2">
         <v>70</v>
@@ -4167,7 +4179,7 @@
         <v>70</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>71</v>
@@ -4184,10 +4196,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4213,10 +4225,10 @@
         <v>77</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4252,7 +4264,7 @@
         <v>70</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AB33" t="s" s="2">
         <v>70</v>
@@ -4267,7 +4279,7 @@
         <v>70</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>71</v>
@@ -4284,10 +4296,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4313,10 +4325,10 @@
         <v>77</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4352,7 +4364,7 @@
         <v>70</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AB34" t="s" s="2">
         <v>70</v>
@@ -4367,7 +4379,7 @@
         <v>70</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>71</v>
@@ -4384,10 +4396,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4413,10 +4425,10 @@
         <v>77</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4452,7 +4464,7 @@
         <v>70</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AB35" t="s" s="2">
         <v>70</v>
@@ -4467,7 +4479,7 @@
         <v>70</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>71</v>
@@ -4484,10 +4496,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4513,10 +4525,10 @@
         <v>84</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4543,16 +4555,14 @@
         <v>70</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AB36" t="s" s="2">
         <v>70</v>
@@ -4567,7 +4577,7 @@
         <v>70</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>71</v>
@@ -4584,10 +4594,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4613,10 +4623,10 @@
         <v>84</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4643,16 +4653,14 @@
         <v>70</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="AB37" t="s" s="2">
         <v>70</v>
@@ -4667,7 +4675,7 @@
         <v>70</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>71</v>
@@ -4684,10 +4692,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4710,13 +4718,13 @@
         <v>70</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -4752,7 +4760,7 @@
         <v>70</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AB38" t="s" s="2">
         <v>70</v>
@@ -4767,7 +4775,7 @@
         <v>70</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>71</v>
